--- a/excel/mag_eigenvector_centrality.xlsx
+++ b/excel/mag_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1888406907599828</v>
+        <v>0.1888381746320892</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.184879251210083</v>
+        <v>0.1848767518011671</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.17112232911283</v>
+        <v>0.1711218884218907</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1600301518850346</v>
+        <v>0.1600306620726795</v>
       </c>
     </row>
     <row r="6">
@@ -425,17 +425,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1591584521563062</v>
+        <v>0.1591590681839626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Human-Machine Systems</t>
+          <t>Interactive Learning Environments</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1580426988450585</v>
+        <v>0.1580433778101014</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1580426988450585</v>
+        <v>0.1580433778101013</v>
       </c>
     </row>
     <row r="9">
@@ -455,67 +455,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1580426988450585</v>
+        <v>0.1580433778101013</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Educational Technology and Society</t>
+          <t>Knowledge Management Research and Practice</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1580426988450585</v>
+        <v>0.1580433778101013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Knowledge Management Research and Practice</t>
+          <t>IEEE Transactions on Human-Machine Systems</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1580426988450585</v>
+        <v>0.1580433778101013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Affective Computing</t>
+          <t>International Journal of Continuing Engineering Education and Life-Long Learning</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1580426988450585</v>
+        <v>0.1580433778101013</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Journal of Emerging Technologies in Web Intelligence</t>
+          <t>Educational Technology and Society</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1580426988450585</v>
+        <v>0.1580433778101012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>International Journal of Continuing Engineering Education and Life-Long Learning</t>
+          <t>IEEE Transactions on Affective Computing</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1580426988450585</v>
+        <v>0.1580433778101012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Interactive Learning Environments</t>
+          <t>Journal of Emerging Technologies in Web Intelligence</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1580426988450585</v>
+        <v>0.1580433778101012</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1515223430017298</v>
+        <v>0.1515216098887588</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1495130505272207</v>
+        <v>0.1495131647995418</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1486525244215237</v>
+        <v>0.14865305827122</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1456466402180722</v>
+        <v>0.1456471600368656</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1418823268869538</v>
+        <v>0.1418832176465645</v>
       </c>
     </row>
     <row r="21">
@@ -575,37 +575,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1415242200014696</v>
+        <v>0.1415252459803895</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Systems, Man and Cybernetics Part C: Applications and Reviews</t>
+          <t>Studies in Computational Intelligence</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1389928171935263</v>
+        <v>0.1389940237512642</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Studies in Computational Intelligence</t>
+          <t>International Journal on Software Tools for Technology Transfer</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1389928171935263</v>
+        <v>0.1389940237512642</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>International Journal on Software Tools for Technology Transfer</t>
+          <t>International Journal of Web Based Communities</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1389928171935263</v>
+        <v>0.1389940237512642</v>
       </c>
     </row>
     <row r="25">
@@ -615,27 +615,27 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1389928171935263</v>
+        <v>0.1389940237512642</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>International Journal of Web Based Communities</t>
+          <t>Journal of Object Technology</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1389928171935263</v>
+        <v>0.1389940237512642</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Journal of Object Technology</t>
+          <t>IEEE Transactions on Systems, Man and Cybernetics Part C: Applications and Reviews</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1389928171935263</v>
+        <v>0.1389940237512642</v>
       </c>
     </row>
     <row r="28">
@@ -645,27 +645,27 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.137890750242439</v>
+        <v>0.1378919239534151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Electronic Library</t>
+          <t>Program</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>International Journal of Artificial Intelligence in Education</t>
+          <t>Electronic Communications of the EASST</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="31">
@@ -675,107 +675,107 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Program</t>
+          <t>International Journal of Web Engineering and Technology</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Software - Practice and Experience</t>
+          <t>IFIP International Federation for Information Processing</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Electronic Communications of the EASST</t>
+          <t>Srpski arhiv za celokupno lekarstvo</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>International Journal of Web Engineering and Technology</t>
+          <t>Software - Practice and Experience</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>International Journal of Knowledge and Learning</t>
+          <t>International Journal of Artificial Intelligence in Education</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IFIP International Federation for Information Processing</t>
+          <t>Fuzzy Sets and Systems</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fuzzy Sets and Systems</t>
+          <t>SIGCSE Bulletin (Association for Computing Machinery, Special Interest Group on Computer Science Education)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SIGCSE Bulletin (Association for Computing Machinery, Special Interest Group on Computer Science Education)</t>
+          <t>International Journal of Flexible Manufacturing Systems</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Srpski arhiv za celokupno lekarstvo</t>
+          <t>International Journal of Knowledge and Learning</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>International Journal of Flexible Manufacturing Systems</t>
+          <t>Electronic Library</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.137719961906568</v>
+        <v>0.1377211342575143</v>
       </c>
     </row>
     <row r="42">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.09177083449767512</v>
+        <v>0.0917677753237192</v>
       </c>
     </row>
     <row r="43">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.09001963117743786</v>
+        <v>0.09001706611620222</v>
       </c>
     </row>
     <row r="44">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.08468704122474686</v>
+        <v>0.08468584583225602</v>
       </c>
     </row>
     <row r="45">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.08443056909999883</v>
+        <v>0.08442922054500242</v>
       </c>
     </row>
     <row r="46">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.08267188334541034</v>
+        <v>0.08267090658976659</v>
       </c>
     </row>
     <row r="47">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.07384811910559017</v>
+        <v>0.07384766212023613</v>
       </c>
     </row>
     <row r="48">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.07344686500847689</v>
+        <v>0.07344644672168148</v>
       </c>
     </row>
     <row r="49">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.07344686500847689</v>
+        <v>0.07344644672168145</v>
       </c>
     </row>
     <row r="50">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07344686500847689</v>
+        <v>0.07344644672168145</v>
       </c>
     </row>
     <row r="51">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.07344686500847689</v>
+        <v>0.07344644672168145</v>
       </c>
     </row>
     <row r="52">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.07344686500847689</v>
+        <v>0.07344644672168144</v>
       </c>
     </row>
     <row r="53">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.04951771005721529</v>
+        <v>0.04951378511418107</v>
       </c>
     </row>
     <row r="54">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0461393510793603</v>
+        <v>0.04613580172056221</v>
       </c>
     </row>
     <row r="55">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03857657643371053</v>
+        <v>0.03857357563783262</v>
       </c>
     </row>
     <row r="56">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.03847641767572275</v>
+        <v>0.03847357775685368</v>
       </c>
     </row>
     <row r="57">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.03649366507201181</v>
+        <v>0.03649134397053463</v>
       </c>
     </row>
     <row r="58">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.03510959551737828</v>
+        <v>0.03510656218971686</v>
       </c>
     </row>
     <row r="59">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03407729878059793</v>
+        <v>0.03407548832611537</v>
       </c>
     </row>
     <row r="60">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.03399925618724602</v>
+        <v>0.03399648799767879</v>
       </c>
     </row>
     <row r="61">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.03297968177626363</v>
+        <v>0.03297831850788352</v>
       </c>
     </row>
     <row r="62">
@@ -985,47 +985,47 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.03287069652979874</v>
+        <v>0.03286822196267945</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>International Journal on Semantic Web and Information Systems</t>
+          <t>International Journal of Enterprise Information Systems</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.02792504139282632</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Journal of Web Semantics</t>
+          <t>Journal of Hazardous Materials</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.02792504139282632</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Energy and Buildings</t>
+          <t>Journal of Web Semantics</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.02792504139282631</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Advanced Engineering Informatics</t>
+          <t>International Journal on Semantic Web and Information Systems</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.02792504139282631</v>
       </c>
     </row>
     <row r="67">
@@ -1035,77 +1035,77 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.02792504139282631</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>International Journal of Enterprise Information Systems</t>
+          <t>Water Research</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.02792504139282631</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WSEAS Transactions on Information Science and Applications</t>
+          <t>Journal of Information and Knowledge Management</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.02792504139282631</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Water Research</t>
+          <t>Expert Systems With Applications</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.02792504139282631</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Journal of Hazardous Materials</t>
+          <t>Advanced Engineering Informatics</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.0279250413928263</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Journal of Hydroinformatics</t>
+          <t>WSEAS Transactions on Information Science and Applications</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.0279250413928263</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Journal of Information and Knowledge Management</t>
+          <t>Journal of Hydroinformatics</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.0279250413928263</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Expert Systems</t>
+          <t>Energy and Buildings</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.0279250413928263</v>
       </c>
     </row>
     <row r="75">
@@ -1115,17 +1115,17 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.0279250413928263</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Expert Systems With Applications</t>
+          <t>Expert Systems</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02792632491446086</v>
+        <v>0.02792504139282629</v>
       </c>
     </row>
     <row r="77">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02739159233545278</v>
+        <v>0.02739199775732166</v>
       </c>
     </row>
     <row r="78">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02739159233545278</v>
+        <v>0.02739199775732165</v>
       </c>
     </row>
     <row r="79">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.02515364464047979</v>
+        <v>0.0251523596507118</v>
       </c>
     </row>
     <row r="80">
@@ -1165,27 +1165,27 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02514909093619115</v>
+        <v>0.02514764224138915</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IEEE Multimedia</t>
+          <t>Behaviour and Information Technology</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02509237953917686</v>
+        <v>0.02508989013068689</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Computers in Human Behavior</t>
+          <t>IEEE Multimedia</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02509237953917686</v>
+        <v>0.02508989013068689</v>
       </c>
     </row>
     <row r="83">
@@ -1195,17 +1195,17 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02509237953917686</v>
+        <v>0.02508989013068687</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Behaviour and Information Technology</t>
+          <t>Computers in Human Behavior</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02509237953917686</v>
+        <v>0.02508989013068686</v>
       </c>
     </row>
     <row r="85">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02486129589803243</v>
+        <v>0.02485885995043338</v>
       </c>
     </row>
     <row r="86">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02444929145795173</v>
+        <v>0.02444763758059202</v>
       </c>
     </row>
     <row r="87">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02442820966044182</v>
+        <v>0.02442693008765969</v>
       </c>
     </row>
     <row r="88">
@@ -1245,27 +1245,27 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02433400911170171</v>
+        <v>0.0243317829856898</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Lecture Notes in Artificial Intelligence (Subseries of Lecture Notes in Computer Science)</t>
+          <t>Proceedings - Frontiers in Education Conference</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02161863115650905</v>
+        <v>0.02161658937554603</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Proceedings - Frontiers in Education Conference</t>
+          <t>Lecture Notes in Artificial Intelligence (Subseries of Lecture Notes in Computer Science)</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02161863115650905</v>
+        <v>0.02161658937554601</v>
       </c>
     </row>
     <row r="91">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02153044004356628</v>
+        <v>0.02152974328069951</v>
       </c>
     </row>
     <row r="92">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02091579181734687</v>
+        <v>0.02091488506166626</v>
       </c>
     </row>
     <row r="93">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0202476483081504</v>
+        <v>0.02024634251359142</v>
       </c>
     </row>
     <row r="94">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02022058627090319</v>
+        <v>0.02021924826395543</v>
       </c>
     </row>
     <row r="95">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02022058627090319</v>
+        <v>0.02021924826395541</v>
       </c>
     </row>
     <row r="96">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01951645510681867</v>
+        <v>0.01951548003740242</v>
       </c>
     </row>
     <row r="97">
@@ -1335,37 +1335,37 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01945433185932795</v>
+        <v>0.01945335341593731</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IET Computers and Digital Techniques</t>
+          <t>Information Processing Letters</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01917616030837107</v>
+        <v>0.01917496406036042</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Neural, Parallel and Scientific Computations</t>
+          <t>IET Computers and Digital Techniques</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01917616030837107</v>
+        <v>0.01917496406036042</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Information Processing Letters</t>
+          <t>Neural, Parallel and Scientific Computations</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01917616030837107</v>
+        <v>0.01917496406036041</v>
       </c>
     </row>
     <row r="101">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0176996154473092</v>
+        <v>0.01769887832668438</v>
       </c>
     </row>
     <row r="102">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.01729211616240548</v>
+        <v>0.01729154369259352</v>
       </c>
     </row>
     <row r="103">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.01391180893236726</v>
+        <v>0.01391120267157451</v>
       </c>
     </row>
     <row r="104">
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.01324098291090301</v>
+        <v>0.01324031225626706</v>
       </c>
     </row>
     <row r="105">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.01324098291090301</v>
+        <v>0.01324031225626704</v>
       </c>
     </row>
     <row r="106">
@@ -1425,37 +1425,37 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.01319312368785596</v>
+        <v>0.0131924550784323</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WSEAS Transactions on Computers</t>
+          <t>Filomat</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.01311359340874987</v>
+        <v>0.01311294317173796</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Filomat</t>
+          <t>International Journal of Simulation Modelling</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.01311359340874987</v>
+        <v>0.01311294317173796</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>International Journal of Simulation Modelling</t>
+          <t>WSEAS Transactions on Computers</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.01311359340874987</v>
+        <v>0.01311294317173795</v>
       </c>
     </row>
     <row r="110">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.01311359340874987</v>
+        <v>0.01311294317173795</v>
       </c>
     </row>
     <row r="111">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.01302371578947975</v>
+        <v>0.01302246497518011</v>
       </c>
     </row>
     <row r="112">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.01300476331047025</v>
+        <v>0.01300307537586634</v>
       </c>
     </row>
     <row r="113">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.01257728534970676</v>
+        <v>0.01257680694397476</v>
       </c>
     </row>
     <row r="114">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0121018912674746</v>
+        <v>0.01210028843179389</v>
       </c>
     </row>
     <row r="115">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.01173463877844875</v>
+        <v>0.01173416921393521</v>
       </c>
     </row>
     <row r="116">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.01133810374998469</v>
+        <v>0.01133660527904997</v>
       </c>
     </row>
     <row r="117">
@@ -1535,27 +1535,27 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.01133810374998469</v>
+        <v>0.01133660527904995</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>RAIRO - Operations Research</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.01133048774916254</v>
+        <v>0.01132977817642462</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>International Journal of Clinical and Experimental Medicine</t>
+          <t>TOP</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.01133048774916254</v>
+        <v>0.01132977817642462</v>
       </c>
     </row>
     <row r="120">
@@ -1565,17 +1565,17 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.01133048774916254</v>
+        <v>0.01132977817642462</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RAIRO - Operations Research</t>
+          <t>International Journal of Clinical and Experimental Medicine</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.01133048774916254</v>
+        <v>0.01132977817642461</v>
       </c>
     </row>
     <row r="122">
@@ -1585,27 +1585,27 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.01083387382450401</v>
+        <v>0.01083308067122906</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Microprocessors and Microsystems</t>
+          <t>Journal of Systems Architecture</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.01076457024928303</v>
+        <v>0.01076434654312704</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Journal of Systems Architecture</t>
+          <t>Microprocessors and Microsystems</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.01076457024928303</v>
+        <v>0.01076434654312703</v>
       </c>
     </row>
     <row r="125">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.01064935901859712</v>
+        <v>0.0106490623784669</v>
       </c>
     </row>
     <row r="126">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.01050080659970771</v>
+        <v>0.01050029040578744</v>
       </c>
     </row>
     <row r="127">
@@ -1635,27 +1635,27 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0103667633723336</v>
+        <v>0.01036604418727352</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Journal of Electrical Engineering</t>
+          <t>Software and Systems Modeling</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.01020735943503632</v>
+        <v>0.01020711595075941</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Software and Systems Modeling</t>
+          <t>Journal of Electrical Engineering</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.01020735943503632</v>
+        <v>0.0102071159507594</v>
       </c>
     </row>
     <row r="130">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.01020735943503632</v>
+        <v>0.0102071159507594</v>
       </c>
     </row>
     <row r="131">
@@ -1675,27 +1675,27 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0100933991501165</v>
+        <v>0.0100931457056254</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>International Journal of Cooperative Information Systems</t>
+          <t>International Journal of Computer Integrated Manufacturing</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0100933991501165</v>
+        <v>0.0100931457056254</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>International Journal of Computer Integrated Manufacturing</t>
+          <t>International Journal of Cooperative Information Systems</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.0100933991501165</v>
+        <v>0.01009314570562539</v>
       </c>
     </row>
     <row r="134">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.009944594746457558</v>
+        <v>0.009943326911646688</v>
       </c>
     </row>
     <row r="135">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.008962085619688578</v>
+        <v>0.008961973993203615</v>
       </c>
     </row>
     <row r="136">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.008789723639926455</v>
+        <v>0.008789668069352051</v>
       </c>
     </row>
     <row r="137">
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.008102495094250541</v>
+        <v>0.008101941849126338</v>
       </c>
     </row>
     <row r="138">
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.007892562871774891</v>
+        <v>0.007891998968045245</v>
       </c>
     </row>
     <row r="139">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.007892562871774891</v>
+        <v>0.007891998968045245</v>
       </c>
     </row>
     <row r="140">
@@ -1765,17 +1765,17 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.007892562871774891</v>
+        <v>0.007891998968045245</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Control Engineering and Applied Informatics</t>
+          <t>Proceedings of the Romanian Academy Series A - Mathematics Physics Technical Sciences Information Science</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.007892562871774891</v>
+        <v>0.007891998968045245</v>
       </c>
     </row>
     <row r="142">
@@ -1785,37 +1785,37 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.007892562871774891</v>
+        <v>0.007891998968045244</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Proceedings of the Romanian Academy Series A - Mathematics Physics Technical Sciences Information Science</t>
+          <t>Journal of Computing and Information Technology</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.007892562871774891</v>
+        <v>0.007891998968045233</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Information</t>
+          <t>Control Engineering and Applied Informatics</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.007892562871774891</v>
+        <v>0.007891998968045232</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Journal of Computing and Information Technology</t>
+          <t>Information</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.007892562871774891</v>
+        <v>0.00789199896804523</v>
       </c>
     </row>
     <row r="146">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.00765042755397111</v>
+        <v>0.007649995618168056</v>
       </c>
     </row>
     <row r="147">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.007350599492220143</v>
+        <v>0.007350631755630822</v>
       </c>
     </row>
     <row r="148">
@@ -1845,27 +1845,27 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.006851933909579266</v>
+        <v>0.006851554791508996</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>International Journal of Intelligent Systems</t>
+          <t>Decision Support Systems</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.006851933909579266</v>
+        <v>0.006851554791508989</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Decision Support Systems</t>
+          <t>International Journal of Intelligent Systems</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.006851933909579266</v>
+        <v>0.006851554791508983</v>
       </c>
     </row>
     <row r="151">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.00681891199509717</v>
+        <v>0.00681866653570558</v>
       </c>
     </row>
     <row r="152">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.006371818812807532</v>
+        <v>0.006371458009373547</v>
       </c>
     </row>
     <row r="153">
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0062275511239445</v>
+        <v>0.006227265035333687</v>
       </c>
     </row>
     <row r="154">
@@ -1905,17 +1905,17 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.005922540141993319</v>
+        <v>0.00592242122346586</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Concurrency Computation</t>
+          <t>IEEE Micro</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.005922540141993319</v>
+        <v>0.00592242122346586</v>
       </c>
     </row>
     <row r="156">
@@ -1925,27 +1925,27 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.005922540141993319</v>
+        <v>0.005922421223465859</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Informatica (Ljubljana)</t>
+          <t>Concurrency Computation</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.005922540141993319</v>
+        <v>0.005922421223465856</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IEEE Micro</t>
+          <t>Informatica (Ljubljana)</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.005922540141993319</v>
+        <v>0.00592242122346585</v>
       </c>
     </row>
     <row r="159">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.005398407100725431</v>
+        <v>0.005398172934682595</v>
       </c>
     </row>
     <row r="160">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.005026569073505955</v>
+        <v>0.005025745728592345</v>
       </c>
     </row>
     <row r="161">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.004843086709961014</v>
+        <v>0.004842505163519409</v>
       </c>
     </row>
     <row r="162">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.004586489548046992</v>
+        <v>0.004586397629233065</v>
       </c>
     </row>
     <row r="163">
@@ -1995,27 +1995,27 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.004177185270405157</v>
+        <v>0.004176780508657699</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Logical Methods in Computer Science</t>
+          <t>Journal of Automated Reasoning</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.004132672229602955</v>
+        <v>0.004131942092390452</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Journal of Automated Reasoning</t>
+          <t>Logical Methods in Computer Science</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.004132672229602954</v>
+        <v>0.004131942092390445</v>
       </c>
     </row>
     <row r="166">
@@ -2025,37 +2025,37 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.003674286096063914</v>
+        <v>0.003673992454041836</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Ad-Hoc and Sensor Wireless Networks</t>
+          <t>IEEE Annals of the History of Computing</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.003674286096063914</v>
+        <v>0.003673992454041822</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>IEEE Annals of the History of Computing</t>
+          <t>Microprocessing and Microprogramming</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.003674286096063914</v>
+        <v>0.003673992454041822</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Microprocessing and Microprogramming</t>
+          <t>Ad-Hoc and Sensor Wireless Networks</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.003674286096063914</v>
+        <v>0.003673992454041819</v>
       </c>
     </row>
     <row r="170">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.00366353109786253</v>
+        <v>0.003663267296476014</v>
       </c>
     </row>
     <row r="171">
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.00366353109786253</v>
+        <v>0.003663267296476013</v>
       </c>
     </row>
     <row r="172">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.003374992042433789</v>
+        <v>0.0033750312881071</v>
       </c>
     </row>
     <row r="173">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.003090174803348521</v>
+        <v>0.003089922803850188</v>
       </c>
     </row>
     <row r="174">
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.003084794010390517</v>
+        <v>0.00308454355334188</v>
       </c>
     </row>
     <row r="175">
@@ -2115,67 +2115,67 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.002972780507572508</v>
+        <v>0.002972374002733536</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mathematics in Computer Science</t>
+          <t>Mathematical Logic Quarterly</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.002838524024345563</v>
+        <v>0.002837975905148046</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Annals of Mathematics and Artificial Intelligence</t>
+          <t>ICGA Journal</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.002838524024345563</v>
+        <v>0.002837975905148044</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ICGA Journal</t>
+          <t>Mathematics in Computer Science</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.002838524024345563</v>
+        <v>0.002837975905148042</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Electronic Notes in Theoretical Computer Science</t>
+          <t>Journal of Experimental and Theoretical Artificial Intelligence</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.002838524024345563</v>
+        <v>0.002837975905148042</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Mathematical Logic Quarterly</t>
+          <t>Electronic Notes in Theoretical Computer Science</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.002838524024345563</v>
+        <v>0.002837975905148036</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Journal of Experimental and Theoretical Artificial Intelligence</t>
+          <t>Annals of Mathematics and Artificial Intelligence</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.002838524024345563</v>
+        <v>0.002837975905148033</v>
       </c>
     </row>
     <row r="182">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.002764668892745887</v>
+        <v>0.00276446123240166</v>
       </c>
     </row>
     <row r="183">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.002606670614182995</v>
+        <v>0.002606547458473462</v>
       </c>
     </row>
     <row r="184">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.002122153868956917</v>
+        <v>0.002122095382597487</v>
       </c>
     </row>
     <row r="185">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.002117101378925317</v>
+        <v>0.002117043394811566</v>
       </c>
     </row>
     <row r="186">
@@ -2225,27 +2225,27 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.002071264802306837</v>
+        <v>0.002071208968011797</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Journal of Immunological Methods</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.002071264802306837</v>
+        <v>0.002071208968011792</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Journal of Immunological Methods</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.002071264802306837</v>
+        <v>0.002071208968011788</v>
       </c>
     </row>
     <row r="189">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.001972722571942461</v>
+        <v>0.001972671661243621</v>
       </c>
     </row>
     <row r="190">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.001968853248025041</v>
+        <v>0.001968592603159551</v>
       </c>
     </row>
     <row r="191">
@@ -2275,37 +2275,37 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.00190565096861044</v>
+        <v>0.001905319719009473</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>OR Spectrum</t>
+          <t>European Journal of Industrial Engineering</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.001827443712834356</v>
+        <v>0.001827282831648657</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Optimization Letters</t>
+          <t>OR Spectrum</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.001827443712834356</v>
+        <v>0.001827282831648653</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>European Journal of Industrial Engineering</t>
+          <t>Optimization Letters</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.001827443712834356</v>
+        <v>0.001827282831648647</v>
       </c>
     </row>
     <row r="195">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.001505438082237439</v>
+        <v>0.001505246934431875</v>
       </c>
     </row>
     <row r="196">
@@ -2325,37 +2325,37 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.001505438082237439</v>
+        <v>0.001505246934431871</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Ophtalmologie : organe de la Societe francaise d"ophtalmologie</t>
+          <t>The International Journal Of Applied Radiation And Isotopes</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.001189320891790585</v>
+        <v>0.001189160252063091</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>AGROHEMIJA</t>
+          <t>Ophtalmologie : organe de la Societe francaise d"ophtalmologie</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.001189320891790585</v>
+        <v>0.001189160252063082</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>The International Journal Of Applied Radiation And Isotopes</t>
+          <t>AGROHEMIJA</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.001189320891790585</v>
+        <v>0.00118916025206308</v>
       </c>
     </row>
     <row r="200">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.001152440733154002</v>
+        <v>0.001152269213486084</v>
       </c>
     </row>
     <row r="201">
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.001152440733154002</v>
+        <v>0.001152269213486078</v>
       </c>
     </row>
     <row r="202">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.001152440733154002</v>
+        <v>0.001152269213486074</v>
       </c>
     </row>
     <row r="203">
@@ -2395,37 +2395,37 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.001021893289065861</v>
+        <v>0.001021762362210452</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Nonlinear Dynamics</t>
+          <t>Transportation Planning and Technology</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.001010703281993159</v>
+        <v>0.001010575311507563</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>International Journal of Applied Earth Observation and Geoinformation</t>
+          <t>Nonlinear Dynamics</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.001010703281993159</v>
+        <v>0.001010575311507561</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Transportation Planning and Technology</t>
+          <t>International Journal of Applied Earth Observation and Geoinformation</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.001010703281993159</v>
+        <v>0.001010575311507546</v>
       </c>
     </row>
     <row r="207">
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0007105363486573115</v>
+        <v>0.0007104900748281858</v>
       </c>
     </row>
     <row r="208">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.0005601629569484616</v>
+        <v>0.00056009594134889</v>
       </c>
     </row>
     <row r="209">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.0005601629569484616</v>
+        <v>0.0005600959413488873</v>
       </c>
     </row>
     <row r="210">
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.0005601629569484616</v>
+        <v>0.0005600959413488783</v>
       </c>
     </row>
     <row r="211">
@@ -2475,67 +2475,67 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.0004116786003037574</v>
+        <v>0.0004116256168347275</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Srpski Arhiv za Celokupno Lekarstvo</t>
+          <t>Journal of Big Data</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0002589329024479796</v>
+        <v>0.0002588981471477909</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Journal of Big Data</t>
+          <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.0002589329024479796</v>
+        <v>0.0002588981471477871</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
+          <t>Srpski Arhiv za Celokupno Lekarstvo</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0002589329024479796</v>
+        <v>0.0002588981471477728</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Medical Ultrasonography</t>
+          <t>Journal of Gastrointestinal and Liver Diseases</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>7.71848469818301e-05</v>
+        <v>7.717266821309163e-05</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Acta Clinica Croatica</t>
+          <t>Medical Ultrasonography</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>7.71848469818301e-05</v>
+        <v>7.717266821308607e-05</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Journal of Gastrointestinal and Liver Diseases</t>
+          <t>Acta Clinica Croatica</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>7.71848469818301e-05</v>
+        <v>7.71726682130792e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2545,47 +2545,47 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>7.072293257307198e-05</v>
+        <v>7.070501660154113e-05</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Physical Chemistry Chemical Physics</t>
+          <t>Plant Cell, Tissue and Organ Culture</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>5.436120144741226e-05</v>
+        <v>5.43582293601021e-05</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Protein Journal</t>
+          <t>Physical Chemistry Chemical Physics</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>5.436120144741226e-05</v>
+        <v>5.435822936009821e-05</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Plant Cell, Tissue and Organ Culture</t>
+          <t>Computer Languages, Systems and Structures</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>5.436120144741226e-05</v>
+        <v>5.435822936009245e-05</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Computer Languages, Systems and Structures</t>
+          <t>Protein Journal</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>5.436120144741226e-05</v>
+        <v>5.43582293600903e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>3.493587180824036e-05</v>
+        <v>3.492738880254687e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3.493587180824036e-05</v>
+        <v>3.492738880253546e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>9.799385288011652e-06</v>
+        <v>9.797042219546613e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2625,17 +2625,17 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2.331495518662877e-07</v>
+        <v>2.330460541437014e-07</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Current Science</t>
+          <t>Profesional de la Informacion</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1.709443606245343e-22</v>
+        <v>3.074770158225559e-18</v>
       </c>
     </row>
     <row r="228">
@@ -2645,17 +2645,17 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1.709443606245343e-22</v>
+        <v>-3.213521179333136e-19</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Profesional de la Informacion</t>
+          <t>Current Science</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1.709443606245343e-22</v>
+        <v>-2.302320881062307e-18</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mag_eigenvector_centrality.xlsx
+++ b/excel/mag_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1888381746320892</v>
+        <v>0.1888381746320894</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1711218884218907</v>
+        <v>0.1711218884218906</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1600306620726795</v>
+        <v>0.1600306620726796</v>
       </c>
     </row>
     <row r="6">
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1591590681839626</v>
+        <v>0.1591590681839628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Interactive Learning Environments</t>
+          <t>Educational Technology Research and Development</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -441,41 +441,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Educational Technology Research and Development</t>
+          <t>Knowledge Management Research and Practice</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1580433778101013</v>
+        <v>0.1580433778101014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Technology, Knowledge and Learning</t>
+          <t>IEEE Transactions on Affective Computing</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1580433778101013</v>
+        <v>0.1580433778101014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Knowledge Management Research and Practice</t>
+          <t>IEEE Transactions on Human-Machine Systems</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1580433778101013</v>
+        <v>0.1580433778101014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Human-Machine Systems</t>
+          <t>Journal of Emerging Technologies in Web Intelligence</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1580433778101013</v>
+        <v>0.1580433778101014</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1580433778101013</v>
+        <v>0.1580433778101014</v>
       </c>
     </row>
     <row r="13">
@@ -495,27 +495,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1580433778101012</v>
+        <v>0.1580433778101014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Affective Computing</t>
+          <t>Interactive Learning Environments</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1580433778101012</v>
+        <v>0.1580433778101014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Journal of Emerging Technologies in Web Intelligence</t>
+          <t>Technology, Knowledge and Learning</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1580433778101012</v>
+        <v>0.1580433778101013</v>
       </c>
     </row>
     <row r="16">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1495131647995418</v>
+        <v>0.1495131647995415</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.14865305827122</v>
+        <v>0.1486530582712202</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1456471600368656</v>
+        <v>0.1456471600368657</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1418832176465645</v>
+        <v>0.1418832176465644</v>
       </c>
     </row>
     <row r="21">
@@ -581,61 +581,61 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Studies in Computational Intelligence</t>
+          <t>IEEE Transactions on Systems, Man and Cybernetics Part C: Applications and Reviews</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1389940237512642</v>
+        <v>0.1389940237512641</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>International Journal on Software Tools for Technology Transfer</t>
+          <t>Studies in Computational Intelligence</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1389940237512642</v>
+        <v>0.1389940237512641</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>International Journal of Web Based Communities</t>
+          <t>International Journal on Software Tools for Technology Transfer</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1389940237512642</v>
+        <v>0.1389940237512641</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IEEE Intelligent Systems</t>
+          <t>International Journal of Web Based Communities</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1389940237512642</v>
+        <v>0.1389940237512641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Journal of Object Technology</t>
+          <t>IEEE Intelligent Systems</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1389940237512642</v>
+        <v>0.1389940237512641</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Systems, Man and Cybernetics Part C: Applications and Reviews</t>
+          <t>Journal of Object Technology</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1389940237512642</v>
+        <v>0.138994023751264</v>
       </c>
     </row>
     <row r="28">
@@ -645,23 +645,23 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1378919239534151</v>
+        <v>0.1378919239534149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Program</t>
+          <t>SIGCSE Bulletin (Association for Computing Machinery, Special Interest Group on Computer Science Education)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1377211342575145</v>
+        <v>0.1377211342575144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Electronic Communications of the EASST</t>
+          <t>Srpski arhiv za celokupno lekarstvo</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -671,7 +671,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Social Science Computer Review</t>
+          <t>Program</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -691,21 +691,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IFIP International Federation for Information Processing</t>
+          <t>Electronic Library</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1377211342575144</v>
+        <v>0.1377211342575143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Srpski arhiv za celokupno lekarstvo</t>
+          <t>International Journal of Artificial Intelligence in Education</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1377211342575144</v>
+        <v>0.1377211342575143</v>
       </c>
     </row>
     <row r="35">
@@ -715,53 +715,53 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1377211342575144</v>
+        <v>0.1377211342575143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>International Journal of Artificial Intelligence in Education</t>
+          <t>Social Science Computer Review</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1377211342575144</v>
+        <v>0.1377211342575143</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fuzzy Sets and Systems</t>
+          <t>Electronic Communications of the EASST</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1377211342575144</v>
+        <v>0.1377211342575143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SIGCSE Bulletin (Association for Computing Machinery, Special Interest Group on Computer Science Education)</t>
+          <t>IFIP International Federation for Information Processing</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1377211342575144</v>
+        <v>0.1377211342575143</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>International Journal of Flexible Manufacturing Systems</t>
+          <t>Fuzzy Sets and Systems</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1377211342575144</v>
+        <v>0.1377211342575143</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>International Journal of Knowledge and Learning</t>
+          <t>International Journal of Flexible Manufacturing Systems</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -771,7 +771,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Electronic Library</t>
+          <t>International Journal of Knowledge and Learning</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0917677753237192</v>
+        <v>0.09176777532371946</v>
       </c>
     </row>
     <row r="43">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.09001706611620222</v>
+        <v>0.09001706611620248</v>
       </c>
     </row>
     <row r="44">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.08468584583225602</v>
+        <v>0.08468584583225625</v>
       </c>
     </row>
     <row r="45">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.08442922054500242</v>
+        <v>0.08442922054500258</v>
       </c>
     </row>
     <row r="46">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.08267090658976659</v>
+        <v>0.08267090658976678</v>
       </c>
     </row>
     <row r="47">
@@ -835,17 +835,17 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.07384766212023613</v>
+        <v>0.07384766212023622</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Australasian Journal of Educational Technology</t>
+          <t>Semantic Web</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.07344644672168148</v>
+        <v>0.07344644672168153</v>
       </c>
     </row>
     <row r="49">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.07344644672168145</v>
+        <v>0.07344644672168152</v>
       </c>
     </row>
     <row r="50">
@@ -865,27 +865,27 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07344644672168145</v>
+        <v>0.07344644672168152</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Semantic Web</t>
+          <t>Journal of Information Technology Education:Research</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.07344644672168145</v>
+        <v>0.07344644672168152</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Journal of Information Technology Education:Research</t>
+          <t>Australasian Journal of Educational Technology</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.07344644672168144</v>
+        <v>0.07344644672168149</v>
       </c>
     </row>
     <row r="53">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.04951378511418107</v>
+        <v>0.04951378511418104</v>
       </c>
     </row>
     <row r="54">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04613580172056221</v>
+        <v>0.04613580172056263</v>
       </c>
     </row>
     <row r="55">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03857357563783262</v>
+        <v>0.03857357563783285</v>
       </c>
     </row>
     <row r="56">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.03847357775685368</v>
+        <v>0.03847357775685389</v>
       </c>
     </row>
     <row r="57">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.03649134397053463</v>
+        <v>0.03649134397053482</v>
       </c>
     </row>
     <row r="58">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.03510656218971686</v>
+        <v>0.03510656218971701</v>
       </c>
     </row>
     <row r="59">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03407548832611537</v>
+        <v>0.03407548832611523</v>
       </c>
     </row>
     <row r="60">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.03399648799767879</v>
+        <v>0.03399648799767898</v>
       </c>
     </row>
     <row r="61">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.03297831850788352</v>
+        <v>0.03297831850788328</v>
       </c>
     </row>
     <row r="62">
@@ -985,147 +985,147 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.03286822196267945</v>
+        <v>0.03286822196267961</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>International Journal of Enterprise Information Systems</t>
+          <t>International Journal on Semantic Web and Information Systems</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02792504139282632</v>
+        <v>0.02792504139282604</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Journal of Hazardous Materials</t>
+          <t>Energy and Buildings</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02792504139282632</v>
+        <v>0.02792504139282604</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Journal of Web Semantics</t>
+          <t>International Journal of Enterprise Information Systems</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02792504139282631</v>
+        <v>0.02792504139282604</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>International Journal on Semantic Web and Information Systems</t>
+          <t>Expert Systems</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02792504139282631</v>
+        <v>0.02792504139282604</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Information Processing and Management</t>
+          <t>Journal of Hydroinformatics</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02792504139282631</v>
+        <v>0.02792504139282604</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Water Research</t>
+          <t>Journal of Web Semantics</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02792504139282631</v>
+        <v>0.02792504139282603</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Journal of Information and Knowledge Management</t>
+          <t>Information Processing and Management</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02792504139282631</v>
+        <v>0.02792504139282603</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Expert Systems With Applications</t>
+          <t>WSEAS Transactions on Information Science and Applications</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02792504139282631</v>
+        <v>0.02792504139282603</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Advanced Engineering Informatics</t>
+          <t>Water Research</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0279250413928263</v>
+        <v>0.02792504139282603</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>WSEAS Transactions on Information Science and Applications</t>
+          <t>Journal of Hazardous Materials</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0279250413928263</v>
+        <v>0.02792504139282603</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Journal of Hydroinformatics</t>
+          <t>Advanced Engineering Informatics</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0279250413928263</v>
+        <v>0.02792504139282603</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Energy and Buildings</t>
+          <t>Computers in Industry</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0279250413928263</v>
+        <v>0.02792504139282603</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Computers in Industry</t>
+          <t>Expert Systems With Applications</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0279250413928263</v>
+        <v>0.02792504139282603</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Expert Systems</t>
+          <t>Journal of Information and Knowledge Management</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02792504139282629</v>
+        <v>0.02792504139282602</v>
       </c>
     </row>
     <row r="77">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02739199775732165</v>
+        <v>0.02739199775732166</v>
       </c>
     </row>
     <row r="79">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0251523596507118</v>
+        <v>0.02515235965071205</v>
       </c>
     </row>
     <row r="80">
@@ -1165,27 +1165,27 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02514764224138915</v>
+        <v>0.02514764224138926</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Behaviour and Information Technology</t>
+          <t>IEEE Multimedia</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02508989013068689</v>
+        <v>0.02508989013068705</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IEEE Multimedia</t>
+          <t>Computers in Human Behavior</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02508989013068689</v>
+        <v>0.02508989013068704</v>
       </c>
     </row>
     <row r="83">
@@ -1195,17 +1195,17 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02508989013068687</v>
+        <v>0.02508989013068704</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Computers in Human Behavior</t>
+          <t>Behaviour and Information Technology</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02508989013068686</v>
+        <v>0.02508989013068704</v>
       </c>
     </row>
     <row r="85">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02485885995043338</v>
+        <v>0.02485885995043356</v>
       </c>
     </row>
     <row r="86">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02444763758059202</v>
+        <v>0.02444763758059226</v>
       </c>
     </row>
     <row r="87">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02442693008765969</v>
+        <v>0.02442693008765971</v>
       </c>
     </row>
     <row r="88">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0243317829856898</v>
+        <v>0.02433178298568996</v>
       </c>
     </row>
     <row r="89">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02161658937554603</v>
+        <v>0.02161658937554614</v>
       </c>
     </row>
     <row r="90">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02161658937554601</v>
+        <v>0.02161658937554613</v>
       </c>
     </row>
     <row r="91">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02152974328069951</v>
+        <v>0.02152974328069967</v>
       </c>
     </row>
     <row r="92">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02091488506166626</v>
+        <v>0.0209148850616663</v>
       </c>
     </row>
     <row r="93">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.02024634251359142</v>
+        <v>0.02024634251359147</v>
       </c>
     </row>
     <row r="94">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02021924826395543</v>
+        <v>0.02021924826395548</v>
       </c>
     </row>
     <row r="95">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02021924826395541</v>
+        <v>0.02021924826395546</v>
       </c>
     </row>
     <row r="96">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01951548003740242</v>
+        <v>0.01951548003740262</v>
       </c>
     </row>
     <row r="97">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01945335341593731</v>
+        <v>0.01945335341593751</v>
       </c>
     </row>
     <row r="98">
@@ -1345,27 +1345,27 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01917496406036042</v>
+        <v>0.01917496406036047</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IET Computers and Digital Techniques</t>
+          <t>Neural, Parallel and Scientific Computations</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01917496406036042</v>
+        <v>0.01917496406036046</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Neural, Parallel and Scientific Computations</t>
+          <t>IET Computers and Digital Techniques</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01917496406036041</v>
+        <v>0.01917496406036046</v>
       </c>
     </row>
     <row r="101">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.01769887832668438</v>
+        <v>0.01769887832668443</v>
       </c>
     </row>
     <row r="102">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.01729154369259352</v>
+        <v>0.01729154369259359</v>
       </c>
     </row>
     <row r="103">
@@ -1395,27 +1395,27 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.01391120267157451</v>
+        <v>0.0139112026715746</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Information Technology and Control</t>
+          <t>Annals of Operations Research</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.01324031225626706</v>
+        <v>0.01324031225626725</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Annals of Operations Research</t>
+          <t>Information Technology and Control</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.01324031225626704</v>
+        <v>0.01324031225626724</v>
       </c>
     </row>
     <row r="106">
@@ -1425,17 +1425,17 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.0131924550784323</v>
+        <v>0.01319245507843249</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Filomat</t>
+          <t>Applied and Computational Mathematics</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.01311294317173796</v>
+        <v>0.01311294317173816</v>
       </c>
     </row>
     <row r="108">
@@ -1445,27 +1445,27 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.01311294317173796</v>
+        <v>0.01311294317173816</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WSEAS Transactions on Computers</t>
+          <t>Filomat</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.01311294317173795</v>
+        <v>0.01311294317173816</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Applied and Computational Mathematics</t>
+          <t>WSEAS Transactions on Computers</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.01311294317173795</v>
+        <v>0.01311294317173815</v>
       </c>
     </row>
     <row r="111">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.01302246497518011</v>
+        <v>0.01302246497518022</v>
       </c>
     </row>
     <row r="112">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.01300307537586634</v>
+        <v>0.01300307537586649</v>
       </c>
     </row>
     <row r="113">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.01257680694397476</v>
+        <v>0.01257680694397481</v>
       </c>
     </row>
     <row r="114">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01210028843179389</v>
+        <v>0.01210028843179401</v>
       </c>
     </row>
     <row r="115">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.01173416921393521</v>
+        <v>0.01173416921393525</v>
       </c>
     </row>
     <row r="116">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.01133660527904997</v>
+        <v>0.0113366052790501</v>
       </c>
     </row>
     <row r="117">
@@ -1535,17 +1535,17 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.01133660527904995</v>
+        <v>0.0113366052790501</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RAIRO - Operations Research</t>
+          <t>Kragujevac Journal of Mathematics</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.01132977817642462</v>
+        <v>0.01132977817642472</v>
       </c>
     </row>
     <row r="119">
@@ -1555,27 +1555,27 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.01132977817642462</v>
+        <v>0.01132977817642471</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Kragujevac Journal of Mathematics</t>
+          <t>International Journal of Clinical and Experimental Medicine</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.01132977817642462</v>
+        <v>0.01132977817642471</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>International Journal of Clinical and Experimental Medicine</t>
+          <t>RAIRO - Operations Research</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.01132977817642461</v>
+        <v>0.0113297781764247</v>
       </c>
     </row>
     <row r="122">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.01083308067122906</v>
+        <v>0.01083308067122915</v>
       </c>
     </row>
     <row r="123">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.01076434654312704</v>
+        <v>0.01076434654312708</v>
       </c>
     </row>
     <row r="124">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.01076434654312703</v>
+        <v>0.01076434654312707</v>
       </c>
     </row>
     <row r="125">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.0106490623784669</v>
+        <v>0.01064906237846694</v>
       </c>
     </row>
     <row r="126">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.01050029040578744</v>
+        <v>0.01050029040578749</v>
       </c>
     </row>
     <row r="127">
@@ -1635,67 +1635,67 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.01036604418727352</v>
+        <v>0.0103660441872736</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Software and Systems Modeling</t>
+          <t>International Journal of Human Computer Studies</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.01020711595075941</v>
+        <v>0.01020711595075939</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Journal of Electrical Engineering</t>
+          <t>Software and Systems Modeling</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0102071159507594</v>
+        <v>0.01020711595075939</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>International Journal of Human Computer Studies</t>
+          <t>Journal of Electrical Engineering</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0102071159507594</v>
+        <v>0.01020711595075938</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Concurrent Engineering Research and Applications</t>
+          <t>International Journal of Cooperative Information Systems</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0100931457056254</v>
+        <v>0.01009314570562542</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>International Journal of Computer Integrated Manufacturing</t>
+          <t>Concurrent Engineering Research and Applications</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0100931457056254</v>
+        <v>0.01009314570562541</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>International Journal of Cooperative Information Systems</t>
+          <t>International Journal of Computer Integrated Manufacturing</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.01009314570562539</v>
+        <v>0.01009314570562541</v>
       </c>
     </row>
     <row r="134">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.009943326911646688</v>
+        <v>0.009943326911646807</v>
       </c>
     </row>
     <row r="135">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.008961973993203615</v>
+        <v>0.008961973993203648</v>
       </c>
     </row>
     <row r="136">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.008789668069352051</v>
+        <v>0.008789668069352045</v>
       </c>
     </row>
     <row r="137">
@@ -1735,87 +1735,87 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.008101941849126338</v>
+        <v>0.008101941849126408</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Classical and Quantum Gravity</t>
+          <t>Proceedings of the Romanian Academy Series A - Mathematics Physics Technical Sciences Information Science</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.007891998968045245</v>
+        <v>0.007891998968045299</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ingenieria e Investigacion</t>
+          <t>Journal of Computing and Information Technology</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.007891998968045245</v>
+        <v>0.007891998968045299</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Physical Review D</t>
+          <t>Information</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.007891998968045245</v>
+        <v>0.007891998968045297</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Proceedings of the Romanian Academy Series A - Mathematics Physics Technical Sciences Information Science</t>
+          <t>Ingenieria e Investigacion</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.007891998968045245</v>
+        <v>0.007891998968045292</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Security and Communication Networks</t>
+          <t>Physical Review D</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.007891998968045244</v>
+        <v>0.007891998968045292</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Journal of Computing and Information Technology</t>
+          <t>Control Engineering and Applied Informatics</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.007891998968045233</v>
+        <v>0.007891998968045285</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Control Engineering and Applied Informatics</t>
+          <t>Security and Communication Networks</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.007891998968045232</v>
+        <v>0.007891998968045285</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Information</t>
+          <t>Classical and Quantum Gravity</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.00789199896804523</v>
+        <v>0.007891998968045284</v>
       </c>
     </row>
     <row r="146">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.007649995618168056</v>
+        <v>0.007649995618168099</v>
       </c>
     </row>
     <row r="147">
@@ -1835,37 +1835,37 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.007350631755630822</v>
+        <v>0.007350631755630794</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Hepato-Gastroenterology</t>
+          <t>Decision Support Systems</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.006851554791508996</v>
+        <v>0.006851554791509055</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Decision Support Systems</t>
+          <t>International Journal of Intelligent Systems</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.006851554791508989</v>
+        <v>0.006851554791509051</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>International Journal of Intelligent Systems</t>
+          <t>Hepato-Gastroenterology</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.006851554791508983</v>
+        <v>0.006851554791509049</v>
       </c>
     </row>
     <row r="151">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.00681866653570558</v>
+        <v>0.006818666535705606</v>
       </c>
     </row>
     <row r="152">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.006371458009373547</v>
+        <v>0.006371458009373562</v>
       </c>
     </row>
     <row r="153">
@@ -1895,57 +1895,57 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.006227265035333687</v>
+        <v>0.006227265035333694</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>Informatica (Ljubljana)</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.00592242122346586</v>
+        <v>0.005922421223465875</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IEEE Micro</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.00592242122346586</v>
+        <v>0.005922421223465871</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Canadian Conference on Electrical and Computer Engineering</t>
+          <t>Concurrency Computation</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.005922421223465859</v>
+        <v>0.005922421223465868</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Concurrency Computation</t>
+          <t>IEEE Micro</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.005922421223465856</v>
+        <v>0.005922421223465868</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Informatica (Ljubljana)</t>
+          <t>Canadian Conference on Electrical and Computer Engineering</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.00592242122346585</v>
+        <v>0.005922421223465865</v>
       </c>
     </row>
     <row r="159">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.005398172934682595</v>
+        <v>0.005398172934682625</v>
       </c>
     </row>
     <row r="160">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.005025745728592345</v>
+        <v>0.005025745728592406</v>
       </c>
     </row>
     <row r="161">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.004842505163519409</v>
+        <v>0.004842505163519467</v>
       </c>
     </row>
     <row r="162">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.004586397629233065</v>
+        <v>0.004586397629233094</v>
       </c>
     </row>
     <row r="163">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.004176780508657699</v>
+        <v>0.00417678050865773</v>
       </c>
     </row>
     <row r="164">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.004131942092390452</v>
+        <v>0.004131942092390505</v>
       </c>
     </row>
     <row r="165">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.004131942092390445</v>
+        <v>0.004131942092390495</v>
       </c>
     </row>
     <row r="166">
@@ -2025,27 +2025,27 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.003673992454041836</v>
+        <v>0.003673992454041842</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>IEEE Annals of the History of Computing</t>
+          <t>Microprocessing and Microprogramming</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.003673992454041822</v>
+        <v>0.003673992454041841</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Microprocessing and Microprogramming</t>
+          <t>IEEE Annals of the History of Computing</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.003673992454041822</v>
+        <v>0.003673992454041835</v>
       </c>
     </row>
     <row r="169">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.003673992454041819</v>
+        <v>0.003673992454041835</v>
       </c>
     </row>
     <row r="170">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.003663267296476014</v>
+        <v>0.003663267296476056</v>
       </c>
     </row>
     <row r="171">
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.003663267296476013</v>
+        <v>0.003663267296476056</v>
       </c>
     </row>
     <row r="172">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.0033750312881071</v>
+        <v>0.003375031288107102</v>
       </c>
     </row>
     <row r="173">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.003089922803850188</v>
+        <v>0.003089922803850225</v>
       </c>
     </row>
     <row r="174">
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.00308454355334188</v>
+        <v>0.003084543553341918</v>
       </c>
     </row>
     <row r="175">
@@ -2115,47 +2115,47 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.002972374002733536</v>
+        <v>0.002972374002733577</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mathematical Logic Quarterly</t>
+          <t>Journal of Experimental and Theoretical Artificial Intelligence</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.002837975905148046</v>
+        <v>0.002837975905148073</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ICGA Journal</t>
+          <t>Mathematics in Computer Science</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.002837975905148044</v>
+        <v>0.002837975905148066</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Mathematics in Computer Science</t>
+          <t>Annals of Mathematics and Artificial Intelligence</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.002837975905148042</v>
+        <v>0.002837975905148065</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Journal of Experimental and Theoretical Artificial Intelligence</t>
+          <t>Mathematical Logic Quarterly</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.002837975905148042</v>
+        <v>0.002837975905148061</v>
       </c>
     </row>
     <row r="180">
@@ -2165,17 +2165,17 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.002837975905148036</v>
+        <v>0.00283797590514806</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Annals of Mathematics and Artificial Intelligence</t>
+          <t>ICGA Journal</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.002837975905148033</v>
+        <v>0.002837975905148058</v>
       </c>
     </row>
     <row r="182">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.00276446123240166</v>
+        <v>0.002764461232401694</v>
       </c>
     </row>
     <row r="183">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.002606547458473462</v>
+        <v>0.002606547458473477</v>
       </c>
     </row>
     <row r="184">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.002122095382597487</v>
+        <v>0.002122095382597541</v>
       </c>
     </row>
     <row r="185">
@@ -2215,37 +2215,37 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.002117043394811566</v>
+        <v>0.002117043394811599</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Journal of Computational Biology</t>
+          <t>Journal of Immunological Methods</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.002071208968011797</v>
+        <v>0.002071208968011823</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Journal of Immunological Methods</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.002071208968011792</v>
+        <v>0.002071208968011818</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Journal of Computational Biology</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.002071208968011788</v>
+        <v>0.002071208968011815</v>
       </c>
     </row>
     <row r="189">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.001972671661243621</v>
+        <v>0.001972671661243642</v>
       </c>
     </row>
     <row r="190">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.001968592603159551</v>
+        <v>0.001968592603159588</v>
       </c>
     </row>
     <row r="191">
@@ -2275,57 +2275,57 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.001905319719009473</v>
+        <v>0.001905319719009494</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>European Journal of Industrial Engineering</t>
+          <t>Optimization Letters</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.001827282831648657</v>
+        <v>0.001827282831648716</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>OR Spectrum</t>
+          <t>European Journal of Industrial Engineering</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.001827282831648653</v>
+        <v>0.001827282831648709</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Optimization Letters</t>
+          <t>OR Spectrum</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.001827282831648647</v>
+        <v>0.001827282831648706</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Peptides</t>
+          <t>Journal of Sports Medicine and Physical Fitness</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.001505246934431875</v>
+        <v>0.001505246934431883</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Journal of Sports Medicine and Physical Fitness</t>
+          <t>Peptides</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.001505246934431871</v>
+        <v>0.001505246934431882</v>
       </c>
     </row>
     <row r="197">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.001189160252063091</v>
+        <v>0.001189160252063094</v>
       </c>
     </row>
     <row r="198">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.001189160252063082</v>
+        <v>0.001189160252063088</v>
       </c>
     </row>
     <row r="199">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.00118916025206308</v>
+        <v>0.001189160252063087</v>
       </c>
     </row>
     <row r="200">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.001152269213486084</v>
+        <v>0.001152269213486085</v>
       </c>
     </row>
     <row r="201">
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.001152269213486078</v>
+        <v>0.00115226921348608</v>
       </c>
     </row>
     <row r="202">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.001152269213486074</v>
+        <v>0.001152269213486077</v>
       </c>
     </row>
     <row r="203">
@@ -2395,27 +2395,27 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.001021762362210452</v>
+        <v>0.001021762362210475</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Transportation Planning and Technology</t>
+          <t>Nonlinear Dynamics</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.001010575311507563</v>
+        <v>0.001010575311507586</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Nonlinear Dynamics</t>
+          <t>Transportation Planning and Technology</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.001010575311507561</v>
+        <v>0.001010575311507583</v>
       </c>
     </row>
     <row r="206">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.001010575311507546</v>
+        <v>0.001010575311507583</v>
       </c>
     </row>
     <row r="207">
@@ -2435,37 +2435,37 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0007104900748281858</v>
+        <v>0.0007104900748281951</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications</t>
+          <t>Mathematics of Computation</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.00056009594134889</v>
+        <v>0.0005600959413489166</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Mathematics of Computation</t>
+          <t>Applicable Algebra in Engineering, Communications and Computing</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.0005600959413488873</v>
+        <v>0.0005600959413489128</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Applicable Algebra in Engineering, Communications and Computing</t>
+          <t>Linear Algebra and Its Applications</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.0005600959413488783</v>
+        <v>0.0005600959413489122</v>
       </c>
     </row>
     <row r="211">
@@ -2475,17 +2475,17 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.0004116256168347275</v>
+        <v>0.0004116256168347093</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Journal of Big Data</t>
+          <t>Srpski Arhiv za Celokupno Lekarstvo</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0002588981471477909</v>
+        <v>0.0002588981471477956</v>
       </c>
     </row>
     <row r="213">
@@ -2495,47 +2495,47 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.0002588981471477871</v>
+        <v>0.0002588981471477953</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Srpski Arhiv za Celokupno Lekarstvo</t>
+          <t>Journal of Big Data</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0002588981471477728</v>
+        <v>0.0002588981471477945</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Journal of Gastrointestinal and Liver Diseases</t>
+          <t>Medical Ultrasonography</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>7.717266821309163e-05</v>
+        <v>7.71726682130739e-05</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Medical Ultrasonography</t>
+          <t>Acta Clinica Croatica</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>7.717266821308607e-05</v>
+        <v>7.717266821307116e-05</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Acta Clinica Croatica</t>
+          <t>Journal of Gastrointestinal and Liver Diseases</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>7.71726682130792e-05</v>
+        <v>7.717266821306589e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>7.070501660154113e-05</v>
+        <v>7.070501660154991e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2555,57 +2555,57 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>5.43582293601021e-05</v>
+        <v>5.435822936011983e-05</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Physical Chemistry Chemical Physics</t>
+          <t>Protein Journal</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>5.435822936009821e-05</v>
+        <v>5.435822936011813e-05</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Computer Languages, Systems and Structures</t>
+          <t>Physical Chemistry Chemical Physics</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>5.435822936009245e-05</v>
+        <v>5.43582293601174e-05</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Protein Journal</t>
+          <t>Computer Languages, Systems and Structures</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>5.43582293600903e-05</v>
+        <v>5.435822936011401e-05</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>GeoInformatica</t>
+          <t>Journal of Computer Science and Technology</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>3.492738880254687e-05</v>
+        <v>3.492738880253215e-05</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Journal of Computer Science and Technology</t>
+          <t>GeoInformatica</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3.492738880253546e-05</v>
+        <v>3.492738880252108e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>9.797042219546613e-06</v>
+        <v>9.797042219541329e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2.330460541437014e-07</v>
+        <v>2.330460541414831e-07</v>
       </c>
     </row>
     <row r="227">
@@ -2635,27 +2635,27 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3.074770158225559e-18</v>
+        <v>1.069753569397897e-17</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Journal of Environmental Protection and Ecology</t>
+          <t>Current Science</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-3.213521179333136e-19</v>
+        <v>1.801593127160712e-19</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Current Science</t>
+          <t>Journal of Environmental Protection and Ecology</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-2.302320881062307e-18</v>
+        <v>-1.693300578403459e-18</v>
       </c>
     </row>
   </sheetData>
